--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf1-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf1-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Gdf1</t>
+  </si>
+  <si>
+    <t>Bmpr1a</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gdf1</t>
-  </si>
-  <si>
-    <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.003005</v>
+        <v>0.003004999999999999</v>
       </c>
       <c r="H2">
-        <v>0.009015</v>
+        <v>0.009014999999999999</v>
       </c>
       <c r="I2">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N2">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O2">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P2">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q2">
-        <v>0.017196608325</v>
+        <v>0.01899814288666666</v>
       </c>
       <c r="R2">
-        <v>0.154769474925</v>
+        <v>0.17098328598</v>
       </c>
       <c r="S2">
-        <v>0.05895738389500659</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="T2">
-        <v>0.05895738389500661</v>
+        <v>0.08271011762055309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.003005</v>
+        <v>0.003004999999999999</v>
       </c>
       <c r="H3">
-        <v>0.009015</v>
+        <v>0.009014999999999999</v>
       </c>
       <c r="I3">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>123.860985</v>
       </c>
       <c r="O3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q3">
         <v>0.124067419975</v>
@@ -635,10 +635,10 @@
         <v>1.116606779775</v>
       </c>
       <c r="S3">
-        <v>0.425356580209783</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="T3">
-        <v>0.425356580209783</v>
+        <v>0.5401386314560597</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.003005</v>
+        <v>0.003004999999999999</v>
       </c>
       <c r="H4">
-        <v>0.009015</v>
+        <v>0.009014999999999999</v>
       </c>
       <c r="I4">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N4">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q4">
-        <v>0.04917439595833334</v>
+        <v>0.08333595415333332</v>
       </c>
       <c r="R4">
-        <v>0.442569563625</v>
+        <v>0.75002358738</v>
       </c>
       <c r="S4">
-        <v>0.1685910201319026</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="T4">
-        <v>0.1685910201319026</v>
+        <v>0.3628105447549136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,294 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.003005</v>
+        <v>0.003004999999999999</v>
       </c>
       <c r="H5">
-        <v>0.009015</v>
+        <v>0.009014999999999999</v>
       </c>
       <c r="I5">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N5">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q5">
-        <v>0.0001866846233333334</v>
+        <v>0.003293995858333333</v>
       </c>
       <c r="R5">
-        <v>0.00168016161</v>
+        <v>0.029645962725</v>
       </c>
       <c r="S5">
-        <v>0.0006400353370354522</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="T5">
-        <v>0.0006400353370354522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.001593</v>
-      </c>
-      <c r="H6">
-        <v>0.004779</v>
-      </c>
-      <c r="I6">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="J6">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>5.722665</v>
-      </c>
-      <c r="N6">
-        <v>17.167995</v>
-      </c>
-      <c r="O6">
-        <v>0.09021166427595352</v>
-      </c>
-      <c r="P6">
-        <v>0.09021166427595353</v>
-      </c>
-      <c r="Q6">
-        <v>0.009116205345</v>
-      </c>
-      <c r="R6">
-        <v>0.08204584810500001</v>
-      </c>
-      <c r="S6">
-        <v>0.03125428038094692</v>
-      </c>
-      <c r="T6">
-        <v>0.03125428038094693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.001593</v>
-      </c>
-      <c r="H7">
-        <v>0.004779</v>
-      </c>
-      <c r="I7">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="J7">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>41.286995</v>
-      </c>
-      <c r="N7">
-        <v>123.860985</v>
-      </c>
-      <c r="O7">
-        <v>0.6508451100847196</v>
-      </c>
-      <c r="P7">
-        <v>0.6508451100847196</v>
-      </c>
-      <c r="Q7">
-        <v>0.065770183035</v>
-      </c>
-      <c r="R7">
-        <v>0.591931647315</v>
-      </c>
-      <c r="S7">
-        <v>0.2254885298749365</v>
-      </c>
-      <c r="T7">
-        <v>0.2254885298749366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.001593</v>
-      </c>
-      <c r="H8">
-        <v>0.004779</v>
-      </c>
-      <c r="I8">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="J8">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>16.36419166666667</v>
-      </c>
-      <c r="N8">
-        <v>49.092575</v>
-      </c>
-      <c r="O8">
-        <v>0.2579638970271175</v>
-      </c>
-      <c r="P8">
-        <v>0.2579638970271175</v>
-      </c>
-      <c r="Q8">
-        <v>0.026068157325</v>
-      </c>
-      <c r="R8">
-        <v>0.234613415925</v>
-      </c>
-      <c r="S8">
-        <v>0.08937287689521492</v>
-      </c>
-      <c r="T8">
-        <v>0.08937287689521493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.001593</v>
-      </c>
-      <c r="H9">
-        <v>0.004779</v>
-      </c>
-      <c r="I9">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="J9">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.06212466666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.186374</v>
-      </c>
-      <c r="O9">
-        <v>0.000979328612209321</v>
-      </c>
-      <c r="P9">
-        <v>0.000979328612209321</v>
-      </c>
-      <c r="Q9">
-        <v>9.896459400000001E-05</v>
-      </c>
-      <c r="R9">
-        <v>0.0008906813460000001</v>
-      </c>
-      <c r="S9">
-        <v>0.0003392932751738687</v>
-      </c>
-      <c r="T9">
-        <v>0.0003392932751738687</v>
+        <v>0.01434070616847367</v>
       </c>
     </row>
   </sheetData>
